--- a/xlsx/FR/policies_fair_FR.xlsx
+++ b/xlsx/FR/policies_fair_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">A ban on combustion-engine cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.180847001009398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0505778878241464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.137678885906941</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.208109633336271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0874247614080387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.160982312907604</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.350173500600994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.375275867065452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.40061071099616</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.201269725003996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.363639485727543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.239729285634762</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0596001400493414</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.12308199797482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0609988045545333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_fair_FR.xlsx
+++ b/xlsx/FR/policies_fair_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.180847001009398</v>
+        <v>0.17856434704031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0505778878241464</v>
+        <v>0.0425271303073892</v>
       </c>
       <c r="D2" t="n">
-        <v>0.137678885906941</v>
+        <v>0.130829511211851</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.208109633336271</v>
+        <v>0.174562312784048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0874247614080387</v>
+        <v>0.0968997123713056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160982312907604</v>
+        <v>0.15976923870296</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.350173500600994</v>
+        <v>0.384213710735987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375275867065452</v>
+        <v>0.373088404345516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.40061071099616</v>
+        <v>0.395325290180555</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.201269725003996</v>
+        <v>0.189580427890549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.363639485727543</v>
+        <v>0.34852350572098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239729285634762</v>
+        <v>0.246037069019171</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0596001400493414</v>
+        <v>0.0730792015491055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12308199797482</v>
+        <v>0.138961247254809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0609988045545333</v>
+        <v>0.0680388908854638</v>
       </c>
     </row>
   </sheetData>
